--- a/biology/Botanique/Abies_holophylla/Abies_holophylla.xlsx
+++ b/biology/Botanique/Abies_holophylla/Abies_holophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies holophylla est une espèce de conifères de la famille des Pinaceae originaire des régions montagneuses de la Corée du Nord, Ussuriland du Sud et la Chine dans les provinces du Heilongjiang, Jilin et Liaoning.
 C’est un conifère à feuilles persistantes à 30 m de haut et 1 m de diamètre de troncavec une couronne conique étroite des branches de propagation horizontales. L’écorce est écailleuse et gris-marron avec des ampoules de résine. Les feuilles (ou « aiguilles ») sont aplatis, 2 à 4 cm de long et de 1,5 à 2,5 mm d’épaisseur, réparties à angle droit du tir et la fini a un point.
@@ -514,9 +526,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (28 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 août 2014) :
 variété Abies holophylla var. aspericorticea Y.Y. Sun</t>
         </is>
       </c>
